--- a/guia/requisitos.xlsx
+++ b/guia/requisitos.xlsx
@@ -160,6 +160,9 @@
 d. La release actual en Heroku corresponderá siempre con el último commit de la rama master (usar los deploys automáticos de Heroku conectando la aplicación de Heroku con la rama master de Github).</t>
   </si>
   <si>
+    <t xml:space="preserve">v2</t>
+  </si>
+  <si>
     <t xml:space="preserve">R10</t>
   </si>
   <si>
@@ -192,9 +195,6 @@
   </si>
   <si>
     <t xml:space="preserve">Validación de los campos de los formularios usando JavaScript.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2</t>
   </si>
   <si>
     <t xml:space="preserve">R13</t>
@@ -1122,8 +1122,8 @@
   </sheetPr>
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B46" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G74" activeCellId="0" sqref="G74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B85" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F99" activeCellId="0" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1391,7 +1391,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>9</v>
@@ -1399,13 +1399,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>11</v>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="12" customFormat="false" ht="147.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="13" customFormat="false" ht="23.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>11</v>
@@ -1469,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H13" s="3" t="n">
         <v>12</v>
@@ -1495,7 +1495,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H14" s="3" t="n">
         <v>13</v>
@@ -1521,7 +1521,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>14</v>
@@ -1547,7 +1547,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H16" s="3" t="n">
         <v>15</v>
@@ -1573,7 +1573,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>16</v>
@@ -1599,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H18" s="3" t="n">
         <v>17</v>
@@ -1625,7 +1625,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H19" s="3" t="n">
         <v>18</v>
@@ -1651,7 +1651,7 @@
         <v>30</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H20" s="3" t="n">
         <v>19</v>
@@ -1755,7 +1755,7 @@
         <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H24" s="3" t="n">
         <v>23</v>
@@ -1781,7 +1781,7 @@
         <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H25" s="3" t="n">
         <v>24</v>
@@ -1807,7 +1807,7 @@
         <v>30</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>25</v>
@@ -1859,7 +1859,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H28" s="3" t="n">
         <v>27</v>
@@ -1885,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>28</v>
@@ -2015,7 +2015,7 @@
         <v>34</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>33</v>
@@ -2041,7 +2041,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>34</v>
@@ -2171,7 +2171,7 @@
         <v>30</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H40" s="3" t="n">
         <v>39</v>
@@ -2249,7 +2249,7 @@
         <v>30</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>42</v>
@@ -2327,7 +2327,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H46" s="3" t="n">
         <v>45</v>
@@ -2431,7 +2431,7 @@
         <v>30</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H50" s="3" t="n">
         <v>49</v>
@@ -2457,7 +2457,7 @@
         <v>30</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H51" s="3" t="n">
         <v>50</v>
@@ -2483,7 +2483,7 @@
         <v>30</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H52" s="3" t="n">
         <v>51</v>
@@ -2509,7 +2509,7 @@
         <v>30</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H53" s="3" t="n">
         <v>52</v>
@@ -2535,7 +2535,7 @@
         <v>30</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H54" s="3" t="n">
         <v>53</v>
@@ -2717,7 +2717,7 @@
         <v>30</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H61" s="3" t="n">
         <v>60</v>
@@ -2769,7 +2769,7 @@
         <v>34</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H63" s="3" t="n">
         <v>62</v>
@@ -2795,7 +2795,7 @@
         <v>34</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H64" s="3" t="n">
         <v>63</v>
@@ -2977,7 +2977,7 @@
         <v>30</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H71" s="3" t="n">
         <v>70</v>
@@ -3003,7 +3003,7 @@
         <v>30</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H72" s="3" t="n">
         <v>71</v>
@@ -3029,7 +3029,7 @@
         <v>34</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H73" s="3" t="n">
         <v>72</v>
@@ -3081,7 +3081,7 @@
         <v>30</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H75" s="3" t="n">
         <v>74</v>
@@ -3107,7 +3107,7 @@
         <v>30</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H76" s="3" t="n">
         <v>75</v>
@@ -3133,7 +3133,7 @@
         <v>30</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H77" s="3" t="n">
         <v>76</v>
@@ -3462,7 +3462,7 @@
         <v>285</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>127</v>
@@ -3471,7 +3471,7 @@
         <v>30</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H90" s="3" t="n">
         <v>89</v>
@@ -3601,7 +3601,7 @@
         <v>13</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H95" s="3" t="n">
         <v>94</v>
@@ -3627,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H96" s="3" t="n">
         <v>95</v>
@@ -3653,7 +3653,7 @@
         <v>13</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H97" s="3" t="n">
         <v>96</v>
